--- a/biology/Médecine/Nolan_D._C._Lewis/Nolan_D._C._Lewis.xlsx
+++ b/biology/Médecine/Nolan_D._C._Lewis/Nolan_D._C._Lewis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nolan D. C. Lewis est un neuropathologiste américain, né le 22 novembre 1889 et mort le 18 décembre 1979 à Frederick dans l'État du Maryland. Il est spécialiste en troubles neurologiques et psychiatriques notamment schizophréniques.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nolan D. C. Lewis obtient son diplôme de l'École de médecine de l'Université du Maryland en 1914. Il suit un troisième cycle en psychologie et en biologie à l'Université Johns-Hopkins et passe une année à l'Université de Vienne[1].
-Il est professeur de pathologie expérimentale à l'Université George Washington de 1923 à 1924 et professeur de psychologie clinique de 1925 jusqu'en 1936 et directeur des laboratoires puis directeur de psychiatrie clinique au St. Elizabeths Hospital à Washington de 1923 à 1933. En 1936, il est nommé professeur de neurologie à l'Université Columbia et directeur associé de l'Institut neurologique du Columbia-Presbyterian Medical Center. Il est également nommé directeur médical du New York State Psychiatric Institute (en) cette même année et reste à ce poste jusqu'en 1953. De 1953 à 1958, il dirige la recherche en neurologie et en psychiatrie au New Jersey Neuropsychiatric Institute[1].
-En 1946 et 1947, il est consultant psychiatrique lors des procès de crime de guerre à Nuremberg et, lors d'une mission spéciale, il fait des recherches pour le gouvernement fédéral des États-Unis sur des expérimentations médicales nazies. Il participe également à des études sur les effets médicaux du bombardement d'Hiroshima[1]. 
-Il est le premier psychanalyste américain pratiquant : Sigmund Freud l'a autorisé à pratiquer sans avoir subi d'analyse personnelle. Le maître lui a simplement demandé combien de ses patients s'étaient suicidés. La réponse — aucun — a suffi[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nolan D. C. Lewis obtient son diplôme de l'École de médecine de l'Université du Maryland en 1914. Il suit un troisième cycle en psychologie et en biologie à l'Université Johns-Hopkins et passe une année à l'Université de Vienne.
+Il est professeur de pathologie expérimentale à l'Université George Washington de 1923 à 1924 et professeur de psychologie clinique de 1925 jusqu'en 1936 et directeur des laboratoires puis directeur de psychiatrie clinique au St. Elizabeths Hospital à Washington de 1923 à 1933. En 1936, il est nommé professeur de neurologie à l'Université Columbia et directeur associé de l'Institut neurologique du Columbia-Presbyterian Medical Center. Il est également nommé directeur médical du New York State Psychiatric Institute (en) cette même année et reste à ce poste jusqu'en 1953. De 1953 à 1958, il dirige la recherche en neurologie et en psychiatrie au New Jersey Neuropsychiatric Institute.
+En 1946 et 1947, il est consultant psychiatrique lors des procès de crime de guerre à Nuremberg et, lors d'une mission spéciale, il fait des recherches pour le gouvernement fédéral des États-Unis sur des expérimentations médicales nazies. Il participe également à des études sur les effets médicaux du bombardement d'Hiroshima. 
+Il est le premier psychanalyste américain pratiquant : Sigmund Freud l'a autorisé à pratiquer sans avoir subi d'analyse personnelle. Le maître lui a simplement demandé combien de ses patients s'étaient suicidés. La réponse — aucun — a suffi.
 </t>
         </is>
       </c>
@@ -546,6 +560,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
